--- a/data/trans_orig/IMC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal</t>
+          <t>Índice de masa corporal (tasa de respuesta: 97,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,21</t>
+          <t>23,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>22,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,77</t>
+          <t>22,93</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,58; 23,92</t>
+          <t>22,81; 24,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,06; 25,08</t>
+          <t>23,05; 25,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,61; 23,96</t>
+          <t>22,52; 23,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,8; 22,98</t>
+          <t>21,88; 23,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,7; 24,57</t>
+          <t>22,84; 24,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,79; 23,51</t>
+          <t>21,78; 23,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,33; 23,25</t>
+          <t>22,49; 23,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,19; 24,63</t>
+          <t>23,09; 24,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,3; 23,41</t>
+          <t>22,34; 23,47</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,45</t>
+          <t>24,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,13</t>
+          <t>24,22</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,28</t>
+          <t>24,41</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,98; 25,0</t>
+          <t>24,06; 25,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,55; 25,64</t>
+          <t>24,53; 25,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,67; 25,75</t>
+          <t>24,72; 25,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,48; 24,98</t>
+          <t>23,57; 25,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,08; 25,31</t>
+          <t>24,02; 25,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,94; 24,21</t>
+          <t>22,88; 24,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 24,74</t>
+          <t>23,94; 24,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,47; 25,28</t>
+          <t>24,42; 25,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,93; 24,78</t>
+          <t>23,95; 24,77</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,3</t>
+          <t>25,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,49</t>
+          <t>24,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,35</t>
+          <t>25,41</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,77; 27,09</t>
+          <t>25,4; 26,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,9; 26,92</t>
+          <t>25,87; 26,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,19; 26,45</t>
+          <t>25,2; 26,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,95; 25,07</t>
+          <t>24,3; 25,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,83; 25,73</t>
+          <t>24,81; 25,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,6; 25,43</t>
+          <t>23,57; 25,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,92; 25,81</t>
+          <t>25,02; 25,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,46; 26,14</t>
+          <t>25,45; 26,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,57; 25,58</t>
+          <t>24,56; 25,62</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,96</t>
+          <t>26,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,02</t>
+          <t>24,97</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,55; 27,37</t>
+          <t>26,5; 27,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,15; 29,52</t>
+          <t>27,16; 29,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 27,36</t>
+          <t>26,05; 27,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 25,61</t>
+          <t>24,49; 25,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,5; 26,35</t>
+          <t>25,56; 26,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 25,12</t>
+          <t>23,85; 25,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 26,32</t>
+          <t>25,63; 26,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,49; 28,79</t>
+          <t>26,48; 28,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,09; 26,06</t>
+          <t>25,13; 26,04</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>26,94</t>
+          <t>26,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>26,09</t>
+          <t>26,04</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,5; 27,41</t>
+          <t>26,37; 27,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,47; 28,29</t>
+          <t>27,45; 28,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,83; 28,1</t>
+          <t>26,78; 28,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,97; 25,82</t>
+          <t>24,97; 25,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,34; 27,22</t>
+          <t>26,33; 27,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,52; 26,82</t>
+          <t>25,57; 26,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,78; 26,41</t>
+          <t>25,73; 26,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,07; 27,63</t>
+          <t>27,06; 27,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,31; 27,2</t>
+          <t>26,32; 27,2</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,05</t>
+          <t>26,92</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,38</t>
+          <t>26,31</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,62; 27,45</t>
+          <t>26,5; 27,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,07; 28,03</t>
+          <t>27,11; 28,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,11; 28,46</t>
+          <t>27,11; 28,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,36; 26,27</t>
+          <t>25,31; 26,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,34; 33,03</t>
+          <t>27,35; 33,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,14; 26,49</t>
+          <t>25,17; 26,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,06; 26,7</t>
+          <t>25,97; 26,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,43</t>
+          <t>27,43; 32,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,21; 27,2</t>
+          <t>26,22; 27,18</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,66</t>
+          <t>26,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,19</t>
+          <t>26,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,37</t>
+          <t>26,27</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,23; 27,15</t>
+          <t>26,08; 26,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,34; 27,2</t>
+          <t>26,36; 27,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,35; 26,54</t>
+          <t>25,32; 26,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,74; 26,65</t>
+          <t>25,71; 26,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,77; 27,59</t>
+          <t>26,77; 27,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,95; 27,57</t>
+          <t>25,86; 27,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,05; 26,69</t>
+          <t>25,95; 26,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,68; 27,29</t>
+          <t>26,71; 27,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,88; 26,91</t>
+          <t>25,91; 26,97</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>26,36</t>
+          <t>26,08</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>25,16</t>
+          <t>25,02</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,71</t>
+          <t>25,52</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,17; 26,54</t>
+          <t>25,88; 26,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,47; 28,3</t>
+          <t>26,45; 28,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,82; 26,31</t>
+          <t>25,81; 26,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,95; 25,35</t>
+          <t>24,81; 25,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,8; 28,81</t>
+          <t>25,8; 28,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,5; 25,1</t>
+          <t>24,52; 25,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,57; 25,85</t>
+          <t>25,37; 25,67</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>26,22; 27,97</t>
+          <t>26,23; 27,94</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>25,2; 25,58</t>
+          <t>25,2; 25,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IMC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>23,89</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23,14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23,74</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>23,49</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>23,96</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>23,74</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>23,14</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>23,63</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22,47</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21,94</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>22,39</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>23,61</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>21,94</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>22,47</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>23,77</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22,81</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22,84</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>22,93</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>23,81</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>22,84</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>22,81</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>23,1; 24,72</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22,52; 23,87</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23,3; 24,23</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>22,81; 24,67</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>23,05; 25,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>23,3; 24,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>22,52; 23,87</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>22,89; 24,54</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 23,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 22,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>21,88; 23,14</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>22,84; 24,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>21,58; 22,37</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>21,78; 23,45</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>23,17; 24,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,34; 23,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22,53; 23,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>22,49; 23,57</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>23,09; 24,49</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>22,53; 23,16</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>22,34; 23,47</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>25,05</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25,22</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24,99</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>24,61</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>25,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>24,99</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>25,22</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>24,45</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23,47</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23,57</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>24,22</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>24,7</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>23,57</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>23,47</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>24,74</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24,33</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,22</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>24,41</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>24,86</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>24,22</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>24,33</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>24,54; 25,63</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24,72; 25,77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24,53; 25,43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>24,06; 25,21</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>24,53; 25,71</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>24,53; 25,43</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>24,72; 25,77</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>23,91; 24,99</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 24,13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23,08; 24,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>23,57; 25,14</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>24,02; 25,29</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>23,08; 24,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>22,88; 24,13</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>24,33; 25,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23,95; 24,77</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 24,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>23,94; 24,9</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>24,42; 25,31</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>23,89; 24,64</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>23,95; 24,77</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>26,29</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25,77</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25,93</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>25,87</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>26,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>25,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>25,77</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>25,41</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24,27</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24,18</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>24,93</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>25,25</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>24,18</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>24,27</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>25,85</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,05</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,06</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>25,41</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>25,8</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>25,06</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>25,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>25,82; 26,8</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25,2; 26,41</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25,58; 26,39</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>25,4; 26,38</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>25,87; 26,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>25,58; 26,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>25,2; 26,41</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>25,01; 25,88</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23,57; 25,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23,72; 24,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>24,3; 25,61</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>24,81; 25,74</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>23,72; 24,67</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>23,57; 25,33</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>25,53; 26,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24,56; 25,62</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24,72; 25,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>25,02; 25,86</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>25,45; 26,18</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>24,72; 25,38</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>24,56; 25,62</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>27,31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26,73</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26,55</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>26,98</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>28,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>26,55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>26,73</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>25,91</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24,4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24,59</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>24,97</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>25,93</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>24,59</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>24,4</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>26,6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,56</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25,6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>25,98</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>27,45</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>25,6</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>25,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>26,88; 27,72</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26,05; 27,38</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26,2; 27,01</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>26,5; 27,43</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>27,16; 29,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>26,2; 27,01</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>26,05; 27,38</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>25,56; 26,32</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23,85; 25,07</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24,19; 25,09</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>24,49; 25,58</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>25,56; 26,35</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>24,19; 25,09</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>23,85; 25,07</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>26,31; 26,89</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25,13; 26,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25,3; 25,93</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>25,63; 26,4</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>26,48; 28,9</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>25,3; 25,93</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>25,13; 26,04</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>27,82</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27,4</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>26,75</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>27,88</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>27,11</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>27,4</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>26,8</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26,13</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,51</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>25,39</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>26,75</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>25,51</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>26,13</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>27,32</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26,72</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26,28</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>26,04</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>27,33</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>26,28</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>26,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>27,42; 28,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26,78; 28,07</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26,65; 27,68</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>26,37; 27,2</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>27,45; 28,27</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>26,65; 27,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>26,78; 28,07</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>26,41; 27,21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25,57; 26,8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25,02; 26,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>24,97; 25,89</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>26,33; 27,16</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>25,02; 26,03</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>25,57; 26,8</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>27,05; 27,61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26,32; 27,2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 26,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>25,73; 26,36</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>27,06; 27,63</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>25,93; 26,68</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>26,32; 27,2</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>27,5</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27,74</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27,19</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>26,92</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>27,56</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,19</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>27,74</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>27,59</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>25,81</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26,37</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>25,79</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,65</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>26,37</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>25,81</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>27,55</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>26,68</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>26,78</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>26,31</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>29,68</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>26,78</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>26,68</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>27,06; 27,95</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27,11; 28,49</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26,9; 27,57</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>26,5; 27,38</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>27,11; 28,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>26,9; 27,57</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>27,11; 28,49</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>27,17; 28,03</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25,17; 26,47</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>25,94; 26,8</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>25,31; 26,26</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>27,35; 33,02</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>25,94; 26,8</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>25,17; 26,47</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>27,25; 27,9</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>26,22; 27,18</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>26,54; 27,04</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>25,97; 26,64</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>27,43; 32,79</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>26,54; 27,04</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>26,22; 27,18</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>26,74</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25,96</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26,1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>26,5</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>26,75</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27,19</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26,72</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>26,1</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>25,96</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>26,12</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>27,17</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27,01</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26,41</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>26,1</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>26,72</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>26,27</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>27,0</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>26,1</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>26,41</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>26,35; 27,21</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>25,32; 26,53</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25,77; 26,46</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>26,08; 26,92</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>26,36; 27,2</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>25,77; 26,46</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>25,32; 26,53</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>26,78; 27,62</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 27,44</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25,69; 26,5</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>25,71; 26,55</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>26,77; 27,6</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>25,69; 26,5</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>25,86; 27,44</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>26,72; 27,3</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25,91; 26,97</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,85; 26,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>25,95; 26,59</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>26,71; 27,29</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>25,85; 26,36</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>25,91; 26,97</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>26,5</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26,06</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>26,05</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>26,08</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>26,96</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>26,05</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>26,06</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>25,89</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24,79</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24,66</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>25,02</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>26,66</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>24,66</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>24,79</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>26,19</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>25,4</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25,33</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>25,52</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>26,81</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>25,33</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>25,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>26,28; 26,7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>25,81; 26,32</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>25,88; 26,22</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>25,88; 26,29</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>26,45; 28,03</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>25,88; 26,22</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>25,81; 26,32</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>25,68; 26,08</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>24,52; 25,11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>24,47; 24,84</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>24,81; 25,26</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>25,8; 28,87</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>24,47; 24,84</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>24,52; 25,11</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>26,05; 26,33</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>25,2; 25,6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>25,21; 25,46</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>25,37; 25,67</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>26,23; 27,94</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>25,21; 25,46</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>25,2; 25,6</t>
         </is>
       </c>
     </row>
